--- a/biology/Biologie cellulaire et moléculaire/Récepteur_des_glucocorticoïdes/Récepteur_des_glucocorticoïdes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_des_glucocorticoïdes/Récepteur_des_glucocorticoïdes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_glucocortico%C3%AFdes</t>
+          <t>Récepteur_des_glucocorticoïdes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le récepteur des glucocorticoïdes (GR) est une protéine de la superfamille des récepteurs nucléaires, famille des récepteurs des stéroïdes, liant naturellement le cortisol, qui est la principale hormone glucocorticoïde dans l'organisme. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_glucocortico%C3%AFdes</t>
+          <t>Récepteur_des_glucocorticoïdes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exons codent une protéine chez l'homme de 778 acides aminés d'une masse moléculaire de 90 kDa. Le récepteur des glucocorticoïdes, comme tous les récepteurs des stéroïdes, est composé de six domaines fonctionnels :
 Les domaines A et B (ou domaines N-terminaux), qui ont un rôle dans l'initialisation et la régulation de la transcription des gènes cibles.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_glucocortico%C3%AFdes</t>
+          <t>Récepteur_des_glucocorticoïdes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le récepteur des glucocorticoïdes se trouve soit dans le noyau, soit dans le cytosol de la cellule, sous forme de monomère inactif car lié à des protéines de choc thermique ou HSP.
 Le ligand naturel du GR, le cortisol, entre dans la cellule, et se fixe au récepteur, provoquant le départ des HSP, le récepteur devient ainsi actif. Il se dimérise alors avec un autre récepteur activé (homodimère) et est transloqué dans le noyau. Dans le noyau, le dimère va se fixer sur les promoteurs des gènes cibles :
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_glucocortico%C3%AFdes</t>
+          <t>Récepteur_des_glucocorticoïdes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortisol est une hormone hyperglycémiante libérée notamment dans les états de stress, elle a aussi une action amplificatrice de l'adrénaline synthétisée entre autres par la glande médulosurrénale, et une action anti-inflammatoire et immunosuppressive (d'où son emploi thérapeutique de corticostéroïdes, appelés aussi corticoïdes).
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_glucocortico%C3%AFdes</t>
+          <t>Récepteur_des_glucocorticoïdes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En situation pathologique le cortisol peut être responsable de diverses maladies, dont entre autres :
 Syndrome de Cushing qui est une pathologie d'hypercortisolisme chronique.
